--- a/pred_ohlcv/54_21/2019-10-31 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 MITH ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2752468.490999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2750217.362999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2669264.026199999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2669246.856399999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2623310.464</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2631695.9705</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2259168.802499999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2259168.802499999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2256168.802499999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2493902.297599999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2518002.297599999</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2488002.297599999</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1676422.0366</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1696822.0366</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1732522.0366</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1982522.0366</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1932512.0366</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1932512.0366</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1790651.3536</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1784176.5579</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2004029.0289</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1985292.648</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1985302.648</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1882584.7121</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2134007.1289</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2134007.1289</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2133957.1289</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2133969.1289</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2133969.1289</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2133969.1289</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2057658.5924</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>2161380.8588</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2161380.8588</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2161380.8588</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>2143280.8588</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 MITH ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2752468.490999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2750227.362999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2669264.026199999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2623310.464</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2631695.9705</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2612471.1682</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1993161.1578</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2260286.029599999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2260158.029599999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2493902.297599999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2518002.297599999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2488002.297599999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2488002.297599999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2581659.297599999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2663361.512699999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1709788.947699999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1794981.7988</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1794981.7988</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1794981.7988</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1787691.8621</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1787691.8621</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1787691.8621</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1611664.8011</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1611664.8011</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1611664.8011</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1626910.8556</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1623739.1366</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1623739.1366</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1663839.1366</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1663839.1366</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1720271.1366</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1720271.1366</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1820506.8581</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1828506.8581</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1717055.0366</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1693055.0366</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1676422.0366</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1696822.0366</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1732522.0366</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1982522.0366</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1982502.0366</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1932512.0366</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1932512.0366</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1932512.0366</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1938654.265799999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1723554.378599999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1723554.378599999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1790651.3536</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1783176.5579</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1784176.5579</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1784176.5579</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1804176.5579</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1804176.5579</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1804176.5579</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1804176.5579</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1812196.5579</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1799639.7245</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1829639.7245</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1829639.7245</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1759535.5925</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1756302.8346</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1756302.8346</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1758272.8346</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1766272.8346</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1651821.8076</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1651821.8076</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1646332.5045</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1702914.0828</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1698709.5102</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1678709.5102</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1678719.5102</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1678719.5102</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1678719.5102</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1672119.5102</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1672119.5102</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1684719.5102</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1684719.5102</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1704719.5102</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1700405.868</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1700405.868</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1700405.868</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1700405.868</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1744805.868</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1915005.868</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1915005.868</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1764020.6006</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1764020.6006</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1783620.6006</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1746720.6006</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1796620.6006</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1796620.6006</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1760868.1033</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1795856.1412</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1868256.1412</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1868256.1412</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2057121.1412</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2015613.4622</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2015642.7789</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2015642.7789</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2004029.0289</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2004029.0289</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2008293.563</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2003792.648</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2003792.648</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1985292.648</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1896584.7121</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1882584.7121</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1884806.7121</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1852137.5654</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2097766.3546</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2140536.5924</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2135527.7259</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2143280.8588</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2143280.8588</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>2120720.3949</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2123892.5051</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2102305.0853</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2164593.8978</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2164593.8978</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2124505.8978</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2124505.8978</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
